--- a/neutralization_assays/data/neut_plate_reader_data/mAb_3C04_NeutralizationAssay.xlsx
+++ b/neutralization_assays/data/neut_plate_reader_data/mAb_3C04_NeutralizationAssay.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juhyemlee/Google Drive/Bloom_Lab/Perth2009_MAP/NeutralizationAssays/mutvalidation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="80" windowWidth="26840" windowHeight="11560" activeTab="2"/>
+    <workbookView xWindow="33040" yWindow="460" windowWidth="27680" windowHeight="17340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
@@ -13,6 +18,9 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -34,7 +42,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -96,7 +103,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -125,7 +131,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -187,7 +192,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -216,7 +220,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -278,7 +281,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -404,12 +406,6 @@
     <t>ms</t>
   </si>
   <si>
-    <t>Part of Plate</t>
-  </si>
-  <si>
-    <t>B1-G12</t>
-  </si>
-  <si>
     <t>Start Time:</t>
   </si>
   <si>
@@ -468,6 +464,12 @@
   </si>
   <si>
     <t>4/27/2019 9:58:10 AM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -501,7 +503,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -934,13 +935,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -948,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -956,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -964,7 +965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -972,7 +973,7 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -980,7 +981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -988,7 +989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -996,7 +997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1004,17 +1005,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1022,12 +1023,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1137,71 +1138,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="B33">
         <v>8476</v>
@@ -1240,9 +1238,9 @@
         <v>8296</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>28502</v>
@@ -1281,9 +1279,9 @@
         <v>28783</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>27113</v>
@@ -1322,9 +1320,9 @@
         <v>7509</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>25344</v>
@@ -1363,9 +1361,9 @@
         <v>7520</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>26316</v>
@@ -1404,9 +1402,9 @@
         <v>7481</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>25367</v>
@@ -1445,23 +1443,23 @@
         <v>28077</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1469,13 +1467,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:M38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1491,7 +1489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1499,7 +1497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1507,15 +1505,15 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1523,7 +1521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1531,7 +1529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1539,17 +1537,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1557,12 +1555,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1573,7 +1571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1584,7 +1582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1595,7 +1593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1606,7 +1604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1617,7 +1615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1628,7 +1626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1639,7 +1637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1650,7 +1648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1661,7 +1659,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1672,71 +1670,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>8714</v>
@@ -1775,9 +1770,9 @@
         <v>8629</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>23908</v>
@@ -1816,9 +1811,9 @@
         <v>31385</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>23434</v>
@@ -1857,9 +1852,9 @@
         <v>20443</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>23426</v>
@@ -1898,9 +1893,9 @@
         <v>19733</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>24000</v>
@@ -1939,9 +1934,9 @@
         <v>19176</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>27812</v>
@@ -1980,23 +1975,23 @@
         <v>27804</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2004,13 +1999,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:M38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2018,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2026,7 +2021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2034,7 +2029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2042,15 +2037,15 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2058,7 +2053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2066,7 +2061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2074,17 +2069,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2092,12 +2087,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2108,7 +2103,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2119,7 +2114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2130,7 +2125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2141,7 +2136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2152,7 +2147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2163,7 +2158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2174,7 +2169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2185,7 +2180,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2196,7 +2191,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2207,71 +2202,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>8416</v>
@@ -2310,9 +2302,9 @@
         <v>8463</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>30249</v>
@@ -2351,9 +2343,9 @@
         <v>30060</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>28708</v>
@@ -2392,9 +2384,9 @@
         <v>17734</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>27622</v>
@@ -2433,9 +2425,9 @@
         <v>17547</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>26565</v>
@@ -2474,9 +2466,9 @@
         <v>17729</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>26525</v>
@@ -2515,22 +2507,22 @@
         <v>29062</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>